--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,30 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>customr_id</t>
+          <t>Row_Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>Column_Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>Error_Type</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Row_Number</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Error_Message</t>
         </is>
@@ -467,23 +457,61 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1002</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>1250</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FORMAT_VIOLATION</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PRJ-01</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+          <t>فرمت مقدار ناصحیح است</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>3</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Field name is required</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>REQUIRED</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The column has no value.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FORMAT_VIOLATION</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>فرمت مقدار ناصحیح است</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>فرمت مقدار ناصحیح است</t>
+          <t>Format is not correct</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,87 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>فرمت مقدار ناصحیح است</t>
+          <t>Format is not correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TYPE_MISMATCH</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The value should be float </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FORMAT_VIOLATION</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Format is not correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LENGTH_VIOLATION</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>The length is more than from 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FORMAT_VIOLATION</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Format is not correct</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,141 +457,61 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FORMAT_VIOLATION</t>
+          <t>REQUIRED</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Format is not correct</t>
+          <t>The column has no value.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REQUIRED</t>
+          <t>TYPE_MISMATCH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The column has no value.</t>
+          <t xml:space="preserve">The value should be float </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FORMAT_VIOLATION</t>
+          <t>LENGTH_VIOLATION</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Format is not correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>TYPE_MISMATCH</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The value should be float </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FORMAT_VIOLATION</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Format is not correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LENGTH_VIOLATION</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>The length is more than from 50</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FORMAT_VIOLATION</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Format is not correct</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +446,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Invalid_Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Error_Type</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Error_Message</t>
         </is>
@@ -466,12 +471,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>REQUIRED</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>The column has no value.</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Value is mandatory but missing</t>
         </is>
       </c>
     </row>
@@ -486,32 +496,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>hf</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>TYPE_MISMATCH</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The value should be float </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LENGTH_VIOLATION</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>The length is more than from 50</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Data type must be float</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -507,6 +507,31 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>Data type must be float</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>REQUIRED</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Value is mandatory but missing</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data type must be float</t>
+          <t>Must be float</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Severity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Column_Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Invalid_Value</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Error_Type</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Error_Message</t>
         </is>
@@ -464,24 +469,27 @@
       <c r="A2" t="n">
         <v>3</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>99</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>NULL</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>REQUIRED</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Value is mandatory but missing</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Missing mandatory value</t>
         </is>
       </c>
     </row>
@@ -489,24 +497,27 @@
       <c r="A3" t="n">
         <v>5</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>99</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>hf</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>TYPE_MISMATCH</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Must be float</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Type conversion error</t>
         </is>
       </c>
     </row>
@@ -514,24 +525,27 @@
       <c r="A4" t="n">
         <v>7</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>99</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>NULL</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>REQUIRED</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Value is mandatory but missing</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Missing mandatory value</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -517,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Failed to convert value to float</t>
+          <t>Cannot convert value to float</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -467,70 +467,66 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+          <t>customr_id</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1004</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>REQUIRED</t>
+          <t>DUPLICATE_VALUE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>This field is mandatory</t>
+          <t>Duplicate entry: '1004' already exists</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>hf</t>
-        </is>
+          <t>customr_id</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1004</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TYPE_MISMATCH</t>
+          <t>DUPLICATE_VALUE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cannot convert value to float</t>
+          <t>Duplicate entry: '1004' already exists</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,53 +493,27 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>customr_id</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1004</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DUPLICATE_VALUE</t>
+          <t>REQUIRED</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>Duplicate entry: '1004' already exists</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REQUIRED</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
         <is>
           <t>This field is mandatory</t>
         </is>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,62 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>hf</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>TYPE_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cannot convert value to float</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>REQUIRED</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>This field is mandatory</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -493,63 +493,61 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+          <t>customr_id</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1004</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>REQUIRED</t>
+          <t>DUPLICATE_VALUE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>This field is mandatory</t>
+          <t>Duplicate entry: '1004' already exists</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>hf</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TYPE_MISMATCH</t>
+          <t>REQUIRED</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cannot convert value to float</t>
+          <t>This field is mandatory</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -561,15 +559,43 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>hf</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>TYPE_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cannot convert value to float</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NULL</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>REQUIRED</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>This field is mandatory</t>
         </is>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,61 +493,63 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>customr_id</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1004</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DUPLICATE_VALUE</t>
+          <t>REQUIRED</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Duplicate entry: '1004' already exists</t>
+          <t>This field is mandatory</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>hf</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>REQUIRED</t>
+          <t>TYPE_MISMATCH</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>This field is mandatory</t>
+          <t>Cannot convert value to float</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -559,43 +561,15 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>hf</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TYPE_MISMATCH</t>
+          <t>REQUIRED</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>Cannot convert value to float</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>REQUIRED</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
         <is>
           <t>This field is mandatory</t>
         </is>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,34 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LENGTH_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>String length is too short</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -478,78 +478,76 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1004</v>
+        <v>101</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DUPLICATE_VALUE</t>
+          <t>LIMIT_VIOLATION</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Duplicate entry: '1004' already exists</t>
+          <t>Value is below the minimum allowed (1000)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+          <t>customr_id</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1004</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>REQUIRED</t>
+          <t>DUPLICATE_VALUE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>This field is mandatory</t>
+          <t>Duplicate entry: '1004' already exists</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>hf</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TYPE_MISMATCH</t>
+          <t>REQUIRED</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cannot convert value to float</t>
+          <t>This field is mandatory</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -561,43 +559,71 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>hf</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>REQUIRED</t>
+          <t>TYPE_MISMATCH</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>This field is mandatory</t>
+          <t>Cannot convert value to float</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>REQUIRED</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>This field is mandatory</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>LENGTH_VIOLATION</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>String length is too short</t>
         </is>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,15 +451,10 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Invalid_Value</t>
+          <t>Error_Type</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Error_Type</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Error_Message</t>
         </is>
@@ -467,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -477,77 +472,66 @@
           <t>customr_id</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>101</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DUPLICATE_VALUE</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LIMIT_VIOLATION</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Value is below the minimum allowed (1000)</t>
+          <t>Duplicate: 1004</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>customr_id</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1004</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>REQUIRED</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DUPLICATE_VALUE</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Duplicate entry: '1004' already exists</t>
+          <t>Field is empty</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>TYPE_MISMATCH</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>REQUIRED</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>This field is mandatory</t>
+          <t>Should be float</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -559,45 +543,35 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>hf</t>
+          <t>REQUIRED</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TYPE_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cannot convert value to float</t>
+          <t>Field is empty</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>LENGTH_VIOLATION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>REQUIRED</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>This field is mandatory</t>
+          <t>Value too long (127 chars)</t>
         </is>
       </c>
     </row>
@@ -615,17 +589,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>LENGTH_VIOLATION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LENGTH_VIOLATION</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>String length is too short</t>
+          <t>Value too short</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Invalid_Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Error_Type</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Error_Message</t>
         </is>
@@ -462,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -472,66 +477,77 @@
           <t>customr_id</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>DUPLICATE_VALUE</t>
-        </is>
+      <c r="D2" t="n">
+        <v>101</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Duplicate: 1004</t>
+          <t>LIMIT_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Value 101 is below minimum 1000</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>REQUIRED</t>
-        </is>
+          <t>customr_id</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1004</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Field is empty</t>
+          <t>DUPLICATE_VALUE</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Duplicate</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TYPE_MISMATCH</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Should be float</t>
+          <t>REQUIRED</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mandatory field</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -543,41 +559,51 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>REQUIRED</t>
+          <t>hf</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Field is empty</t>
+          <t>TYPE_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Type error</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LENGTH_VIOLATION</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Value too long (127 chars)</t>
+          <t>REQUIRED</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mandatory field</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -589,12 +615,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Length: 127</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>LENGTH_VIOLATION</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Value too short</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Max allowed is 50</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Value 101 is below minimum 1000</t>
+          <t>Value below minimum 1000</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,35 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Max allowed is 50</t>
+          <t>Value too long (max: 50)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LENGTH_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Value too short (min: 3)</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Value below minimum 1000</t>
+          <t>Below minimum 1000</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Duplicate</t>
+          <t>Duplicate entry</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Type error</t>
+          <t>Type mismatch</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Value too long (max: 50)</t>
+          <t>Value exceeds max length of 50</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Value too short (min: 3)</t>
+          <t>Value 'f' is too short (Length: 1, Min required: 3)</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Below minimum 1000</t>
+          <t>Value 101 is below minimum 1000</t>
         </is>
       </c>
     </row>
@@ -513,69 +513,67 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Duplicate entry</t>
+          <t>Duplicate</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+          <t>customr_id</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>10001</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>REQUIRED</t>
+          <t>LIMIT_VIOLATION</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mandatory field</t>
+          <t>Value 10001 exceeds maximum 9999</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>hf</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TYPE_MISMATCH</t>
+          <t>REQUIRED</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Type mismatch</t>
+          <t>Mandatory field</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -587,51 +585,51 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>hf</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>REQUIRED</t>
+          <t>TYPE_MISMATCH</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mandatory field</t>
+          <t>Type error</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Length: 127</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LENGTH_VIOLATION</t>
+          <t>REQUIRED</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Value exceeds max length of 50</t>
+          <t>Mandatory field</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -643,17 +641,45 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Length: 127</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LENGTH_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Too long (max 50)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>f</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>LENGTH_VIOLATION</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Value 'f' is too short (Length: 1, Min required: 3)</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Too short (min 3)</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Value 101 is below minimum 1000</t>
+          <t>Below minimum</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Value 10001 exceeds maximum 9999</t>
+          <t>Exceeds maximum</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Too long (max 50)</t>
+          <t>Too long</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,343 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Too short (min 3)</t>
+          <t>Too short</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PRJ-01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PRJ-01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PRJ-01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PRJ-01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PRJ-02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PRJ-03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PRJ-02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PRJ-03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PRJ-01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PRJ-03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PRJ-02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PRJ-2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,70 +545,66 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+          <t>customr_id</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1003</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>REQUIRED</t>
+          <t>DUPLICATE_VALUE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mandatory field</t>
+          <t>Duplicate</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>hf</t>
-        </is>
+          <t>customr_id</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TYPE_MISMATCH</t>
+          <t>LIMIT_VIOLATION</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Type error</t>
+          <t>Below minimum</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -629,175 +625,175 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Length: 127</t>
+          <t>hf</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>LENGTH_VIOLATION</t>
+          <t>TYPE_MISMATCH</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Too long</t>
+          <t>Type error</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>LENGTH_VIOLATION</t>
+          <t>REQUIRED</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Too short</t>
+          <t>Mandatory field</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
         <v>2</v>
       </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PRJ-01</t>
+          <t>Length: 127</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>LENGTH_VIOLATION</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Invalid format</t>
+          <t>Too long</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PRJ-01</t>
+          <t>f</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>LENGTH_VIOLATION</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Invalid format</t>
+          <t>Too short</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PRJ-01</t>
+          <t>j</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>TYPE_MISMATCH</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Invalid format</t>
+          <t>Type error</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PRJ-01</t>
+          <t>gf</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>LENGTH_VIOLATION</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Invalid format</t>
+          <t>Too short</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -809,7 +805,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PRJ-02</t>
+          <t>PRJ-01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -825,7 +821,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
@@ -837,7 +833,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PRJ-03</t>
+          <t>PRJ-01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -853,7 +849,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
@@ -865,7 +861,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PRJ-02</t>
+          <t>PRJ-01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -881,7 +877,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
         <v>3</v>
@@ -893,7 +889,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PRJ-03</t>
+          <t>PRJ-01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -909,7 +905,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B18" t="n">
         <v>3</v>
@@ -921,7 +917,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PRJ-01</t>
+          <t>PRJ-02</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -937,7 +933,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B19" t="n">
         <v>3</v>
@@ -965,7 +961,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B20" t="n">
         <v>3</v>
@@ -993,27 +989,279 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>9</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PRJ-03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PRJ-01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PRJ-03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PRJ-02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>13</v>
       </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>PRJ-2</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>14</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PRJ-09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>15</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>PRJ-02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>16</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>PRJ-01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>17</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>PRJ-04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Invalid format</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>18</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>PRJ-01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Invalid format</t>
         </is>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,482 +791,6 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>PRJ-01</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Invalid format</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>PRJ-01</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Invalid format</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>PRJ-01</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Invalid format</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>PRJ-01</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Invalid format</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>6</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>PRJ-02</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Invalid format</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>7</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>PRJ-03</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Invalid format</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>8</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>PRJ-02</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Invalid format</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>9</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>PRJ-03</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Invalid format</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>10</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PRJ-01</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Invalid format</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>11</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PRJ-03</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Invalid format</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>12</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PRJ-02</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Invalid format</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>13</v>
-      </c>
-      <c r="B25" t="n">
-        <v>3</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PRJ-2</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Invalid format</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>14</v>
-      </c>
-      <c r="B26" t="n">
-        <v>3</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>PRJ-09</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Invalid format</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>15</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>PRJ-02</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Invalid format</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>16</v>
-      </c>
-      <c r="B28" t="n">
-        <v>3</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>PRJ-01</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Invalid format</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>17</v>
-      </c>
-      <c r="B29" t="n">
-        <v>3</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>PRJ-04</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Invalid format</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>18</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>PRJ-01</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Invalid format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,7 +681,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
@@ -693,7 +693,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Length: 127</t>
+          <t>f</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -703,91 +703,117 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Too long</t>
+          <t>Too short</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LENGTH_VIOLATION</t>
+          <t>TYPE_MISMATCH</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Too short</t>
+          <t>Type error</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
         <v>2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>gf</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TYPE_MISMATCH</t>
+          <t>LENGTH_VIOLATION</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Type error</t>
+          <t>Too short</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Activef</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>INVALID_OPTION</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Value must be one of: Active, Deactive, Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>2</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>gf</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>LENGTH_VIOLATION</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Too short</t>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>INVALID_OPTION</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Value must be one of: Active, Deactive, Suspend</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -478,22 +478,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>101</v>
+        <v>5555</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LIMIT_VIOLATION</t>
+          <t>DUPLICATE_VALUE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Below minimum</t>
+          <t>Duplicate</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1004</v>
+        <v>101</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DUPLICATE_VALUE</t>
+          <t>LIMIT_VIOLATION</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Duplicate</t>
+          <t>Below minimum</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -555,49 +555,53 @@
           <t>customr_id</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>1003</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DUPLICATE_VALUE</t>
+          <t>REQUIRED</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Duplicate</t>
+          <t>Mandatory field</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>customr_id</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Jo</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LIMIT_VIOLATION</t>
+          <t>LENGTH_VIOLATION</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Below minimum</t>
+          <t>Too short</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -625,7 +629,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -635,25 +639,23 @@
           <t>amount</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>hf</t>
-        </is>
+      <c r="D8" t="n">
+        <v>-50.5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TYPE_MISMATCH</t>
+          <t>LIMIT_VIOLATION</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Type error</t>
+          <t>Below minimum</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -665,107 +667,107 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>InvalidAmount</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>REQUIRED</t>
+          <t>TYPE_MISMATCH</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mandatory field</t>
+          <t>Type error</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>PROJ-123</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LENGTH_VIOLATION</t>
+          <t>PATTERN_MISMATCH</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Too short</t>
+          <t>Invalid format</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>PRJ-ABC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TYPE_MISMATCH</t>
+          <t>PATTERN_MISMATCH</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Type error</t>
+          <t>Invalid format</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>status</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>gf</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>LENGTH_VIOLATION</t>
+          <t>INVALID_OPTION</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Too short</t>
+          <t>Value must be one of: Active, Deactive, Suspend</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="B13" t="n">
         <v>3</v>
@@ -777,7 +779,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Activef</t>
+          <t>De-active</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -793,7 +795,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -803,8 +805,10 @@
           <t>status</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>2</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Suspended</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -478,22 +478,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5555</v>
+        <v>101</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DUPLICATE_VALUE</t>
+          <t>LIMIT_VIOLATION</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Duplicate</t>
+          <t>Below minimum</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -513,13 +513,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Below minimum</t>
+          <t>Exceeds maximum</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -529,51 +529,53 @@
           <t>customr_id</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>10001</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LIMIT_VIOLATION</t>
+          <t>REQUIRED</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Exceeds maximum</t>
+          <t>Mandatory field</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>customr_id</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>Jo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>REQUIRED</t>
+          <t>LENGTH_VIOLATION</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mandatory field</t>
+          <t>Too short</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -585,51 +587,49 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jo</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LENGTH_VIOLATION</t>
+          <t>REQUIRED</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Too short</t>
+          <t>Mandatory field</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-50.5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>REQUIRED</t>
+          <t>LIMIT_VIOLATION</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mandatory field</t>
+          <t>Below minimum</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -639,45 +639,47 @@
           <t>amount</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>-50.5</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>InvalidAmount</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>LIMIT_VIOLATION</t>
+          <t>TYPE_MISMATCH</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Below minimum</t>
+          <t>Type error</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>status</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>InvalidAmount</t>
+          <t>Deactive1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TYPE_MISMATCH</t>
+          <t>INVALID_OPTION</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Type error</t>
+          <t>Value must be one of: Active, Deactive, Suspend</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,391 +436,1418 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Row_Number</t>
+          <t>Row</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Col</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Val</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Severity</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Column_Name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Invalid_Value</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Error_Type</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Error_Message</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>customr_id</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>101</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>LIMIT_VIOLATION</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Below minimum</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>500</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>32</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>customr_id</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>10001</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>LIMIT_VIOLATION</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Exceeds maximum</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>500</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>42</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>customr_id</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REQUIRED</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Mandatory field</t>
-        </is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>52</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jo</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LENGTH_VIOLATION</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Too short</t>
-        </is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>72</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>500</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>REQUIRED</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Mandatory field</t>
-        </is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>82</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>-50.5</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LIMIT_VIOLATION</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Below minimum</t>
-        </is>
+          <t>10/01/2026 14:08</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>500</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>InvalidAmount</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>TYPE_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Type error</t>
-        </is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
+        <v>21</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Deactive1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>INVALID_OPTION</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Value must be one of: Active, Deactive, Suspend</t>
-        </is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>102</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
+        <v>23</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PROJ-123</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Invalid format</t>
-        </is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
+        <v>27</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PRJ-ABC</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Invalid format</t>
-        </is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>122</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
+        <v>43</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>INVALID_OPTION</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Value must be one of: Active, Deactive, Suspend</t>
-        </is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>132</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
+        <v>47</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>De-active</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>INVALID_OPTION</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Value must be one of: Active, Deactive, Suspend</t>
-        </is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>53</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>500</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>500</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>66</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>500</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>73</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>77</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>78</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>500</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>87</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2026-01-30 14:08:53</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>88</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>500</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>89</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>90</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>500</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>91</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>92</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>500</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>94</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>500</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>96</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>500</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>97</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>99</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>100</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>500</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>103</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>104</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>500</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>108</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>500</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>110</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>500</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>500</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>114</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>500</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>117</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>121</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>122</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>500</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>123</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>126</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>500</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>134</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>500</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>141</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
         <v>142</v>
       </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Suspended</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>INVALID_OPTION</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Value must be one of: Active, Deactive, Suspend</t>
-        </is>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>500</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>144</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>500</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>146</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>500</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>150</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>500</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>151</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>159</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>161</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>165</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>167</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>169</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>171</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>172</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>500</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>179</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>181</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>185</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>186</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>500</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>190</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>500</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>191</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>194</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>500</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>195</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>200</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>500</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>201</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DUPLICATE_VALUE</t>
+          <t>DUPLICATE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Duplicate in customr_id</t>
+          <t>Duplicate found in customr_id</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'type': 'conditional', 'if_col': 'status', 'equals': 'Suspend', 'then_value': 0}</t>
+          <t>DSL Rule failure</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'type': 'conditional', 'if_col': 'status', 'equals': 'Suspend', 'then_value': 0}</t>
+          <t>DSL Rule failure</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'type': 'conditional', 'if_col': 'status', 'equals': 'Suspend', 'then_value': 0}</t>
+          <t>DSL Rule failure</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'type': 'conditional', 'if_col': 'status', 'equals': 'Suspend', 'then_value': 0}</t>
+          <t>DSL Rule failure</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'type': 'conditional', 'if_col': 'status', 'equals': 'Suspend', 'then_value': 0}</t>
+          <t>DSL Rule failure</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'type': 'conditional', 'if_col': 'status', 'equals': 'Suspend', 'then_value': 0}</t>
+          <t>DSL Rule failure</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'type': 'conditional', 'if_col': 'status', 'equals': 'Suspend', 'then_value': 0}</t>
+          <t>DSL Rule failure</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'type': 'conditional', 'if_col': 'status', 'equals': 'Suspend', 'then_value': 0}</t>
+          <t>DSL Rule failure</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'type': 'conditional', 'if_col': 'status', 'equals': 'Suspend', 'then_value': 0}</t>
+          <t>DSL Rule failure</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'type': 'conditional', 'if_col': 'status', 'equals': 'Suspend', 'then_value': 0}</t>
+          <t>DSL Rule failure</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'type': 'conditional', 'if_col': 'status', 'equals': 'Suspend', 'then_value': 0}</t>
+          <t>DSL Rule failure</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{'type': 'conditional', 'if_col': 'status', 'equals': 'Suspend', 'then_value': 0}</t>
+          <t>DSL Rule failure</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'type': 'conditional', 'if_col': 'status', 'equals': 'Suspend', 'then_value': 0}</t>
+          <t>DSL Rule failure</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'type': 'conditional', 'if_col': 'status', 'equals': 'Suspend', 'then_value': 0}</t>
+          <t>DSL Rule failure</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Regex: ^PRJ-[0-9]+$</t>
+          <t>Regex failure: ^PRJ-[0-9]+$</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Regex: ^PRJ-[0-9]+$</t>
+          <t>Regex failure: ^PRJ-[0-9]+$</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Regex: ^PRJ-[0-9]+$</t>
+          <t>Regex failure: ^PRJ-[0-9]+$</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>{'type': 'compare', 'operator': '&lt;=', 'right': 'now'}</t>
+          <t>DSL Rule failure</t>
         </is>
       </c>
     </row>
@@ -995,7 +995,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Regex: ^PRJ-[0-9]+$</t>
+          <t>Regex failure: ^PRJ-[0-9]+$</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Regex: ^PRJ-[0-9]+$</t>
+          <t>Regex failure: ^PRJ-[0-9]+$</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Regex: ^PRJ-[0-9]+$</t>
+          <t>Regex failure: ^PRJ-[0-9]+$</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Regex: ^PRJ-[0-9]+$</t>
+          <t>Regex failure: ^PRJ-[0-9]+$</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Regex: ^PRJ-[0-9]+$</t>
+          <t>Regex failure: ^PRJ-[0-9]+$</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Regex: ^PRJ-[0-9]+$</t>
+          <t>Regex failure: ^PRJ-[0-9]+$</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Regex: ^PRJ-[0-9]+$</t>
+          <t>Regex failure: ^PRJ-[0-9]+$</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Regex: ^PRJ-[0-9]+$</t>
+          <t>Regex failure: ^PRJ-[0-9]+$</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Regex: ^PRJ-[0-9]+$</t>
+          <t>Regex failure: ^PRJ-[0-9]+$</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Regex: ^PRJ-[0-9]+$</t>
+          <t>Regex failure: ^PRJ-[0-9]+$</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Regex: ^PRJ-[0-9]+$</t>
+          <t>Regex failure: ^PRJ-[0-9]+$</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -471,29 +471,29 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>customr_id</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>Ab tt</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DUPLICATE</t>
+          <t>INVALID_TYPE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Duplicate found in customr_id</t>
+          <t>Value is not a valid float</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Regex failure: ^PRJ-[0-9]+$</t>
+          <t>Regex failure</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Regex failure: ^PRJ-[0-9]+$</t>
+          <t>Regex failure</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Regex failure: ^PRJ-[0-9]+$</t>
+          <t>Regex failure</t>
         </is>
       </c>
     </row>
@@ -995,7 +995,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Regex failure: ^PRJ-[0-9]+$</t>
+          <t>Regex failure</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Regex failure: ^PRJ-[0-9]+$</t>
+          <t>Regex failure</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Regex failure: ^PRJ-[0-9]+$</t>
+          <t>Regex failure</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Regex failure: ^PRJ-[0-9]+$</t>
+          <t>Regex failure</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Regex failure: ^PRJ-[0-9]+$</t>
+          <t>Regex failure</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Regex failure: ^PRJ-[0-9]+$</t>
+          <t>Regex failure</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Regex failure: ^PRJ-[0-9]+$</t>
+          <t>Regex failure</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Regex failure: ^PRJ-[0-9]+$</t>
+          <t>Regex failure</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Regex failure: ^PRJ-[0-9]+$</t>
+          <t>Regex failure</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Regex failure: ^PRJ-[0-9]+$</t>
+          <t>Regex failure</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Regex failure: ^PRJ-[0-9]+$</t>
+          <t>Regex failure</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +525,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,7 +551,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B12" t="n">
         <v>2</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B16" t="n">
         <v>2</v>
@@ -863,35 +863,33 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>INVALID-123</t>
-        </is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>500</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Regex failure</t>
+          <t>DSL Rule failure</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
         <v>3</v>
@@ -919,7 +917,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>3</v>
@@ -954,54 +952,54 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>46047.67946717593</v>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>INVALID-123</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CUSTOM_LOGIC_VIOLATION</t>
+          <t>PATTERN_MISMATCH</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DSL Rule failure</t>
+          <t>Regex failure</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B21" t="n">
         <v>3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INVALID-123</t>
-        </is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>46047.67946717593</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>CUSTOM_LOGIC_VIOLATION</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Regex failure</t>
+          <t>DSL Rule failure</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B22" t="n">
         <v>3</v>
@@ -1029,7 +1027,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B23" t="n">
         <v>3</v>
@@ -1057,7 +1055,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B24" t="n">
         <v>3</v>
@@ -1085,7 +1083,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B25" t="n">
         <v>3</v>
@@ -1113,7 +1111,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B26" t="n">
         <v>3</v>
@@ -1141,7 +1139,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B27" t="n">
         <v>3</v>
@@ -1169,7 +1167,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B28" t="n">
         <v>3</v>
@@ -1197,7 +1195,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B29" t="n">
         <v>3</v>
@@ -1225,7 +1223,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B30" t="n">
         <v>3</v>
@@ -1253,27 +1251,55 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
+        <v>182</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>INVALID-123</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>PATTERN_MISMATCH</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Regex failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
         <v>197</v>
       </c>
-      <c r="B31" t="n">
-        <v>3</v>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>project_code</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>INVALID-123</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>PATTERN_MISMATCH</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Regex failure</t>
         </is>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,837 +471,7837 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ab tt</t>
+          <t>Company_0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>INVALID_TYPE</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Value is not a valid float</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>500</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Company_1</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CUSTOM_LOGIC_VIOLATION</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DSL Rule failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>150</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Company_2</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CUSTOM_LOGIC_VIOLATION</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DSL Rule failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>500</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Company_3</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CUSTOM_LOGIC_VIOLATION</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DSL Rule failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>500</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Company_4</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CUSTOM_LOGIC_VIOLATION</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DSL Rule failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>500</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Company_5</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CUSTOM_LOGIC_VIOLATION</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DSL Rule failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>500</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Company_6</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CUSTOM_LOGIC_VIOLATION</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DSL Rule failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>500</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Company_7</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CUSTOM_LOGIC_VIOLATION</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DSL Rule failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>500</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Company_8</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CUSTOM_LOGIC_VIOLATION</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DSL Rule failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>500</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Company_9</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CUSTOM_LOGIC_VIOLATION</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>DSL Rule failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>500</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Company_10</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CUSTOM_LOGIC_VIOLATION</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>DSL Rule failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>500</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Company_11</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CUSTOM_LOGIC_VIOLATION</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>DSL Rule failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>500</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Company_12</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CUSTOM_LOGIC_VIOLATION</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>DSL Rule failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>500</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Company_13</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CUSTOM_LOGIC_VIOLATION</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DSL Rule failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>500</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Company_14</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CUSTOM_LOGIC_VIOLATION</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DSL Rule failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>500</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Company_15</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CUSTOM_LOGIC_VIOLATION</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DSL Rule failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>INVALID-123</t>
+          <t>Company_16</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Regex failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>INVALID-123</t>
+          <t>Company_17</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Regex failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>INVALID-123</t>
+          <t>Company_18</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Regex failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>46047.67946717593</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Company_19</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CUSTOM_LOGIC_VIOLATION</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>DSL Rule failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>INVALID-123</t>
+          <t>Company_21</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Regex failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>INVALID-123</t>
+          <t>Company_22</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Regex failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>INVALID-123</t>
+          <t>Company_23</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Regex failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>INVALID-123</t>
+          <t>Company_24</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Regex failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>INVALID-123</t>
+          <t>Company_25</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Regex failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>INVALID-123</t>
+          <t>Company_26</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Regex failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>INVALID-123</t>
+          <t>Company_27</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Regex failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>INVALID-123</t>
+          <t>Company_28</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Regex failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>INVALID-123</t>
+          <t>Company_29</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Regex failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>INVALID-123</t>
+          <t>Company_30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PATTERN_MISMATCH</t>
+          <t>VALIDATION_ERROR</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Regex failure</t>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Company_31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Company_32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Company_33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Company_34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Company_35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Company_36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Company_37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>40</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Company_38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>41</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Company_39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>42</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Company_40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>43</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Company_41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>44</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Company_42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>45</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Company_43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>46</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Company_44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>47</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Company_45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>48</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Company_46</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>49</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Company_47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>50</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Company_48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>51</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Company_49</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>52</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Company_50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>53</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Company_51</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>54</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Company_52</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>55</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Company_53</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>56</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Company_54</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>57</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Company_55</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Company_56</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Company_57</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Company_58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>61</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Company_59</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>62</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Company_60</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Company_61</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Company_62</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Company_63</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>66</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Company_64</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>67</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Company_65</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>68</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Company_66</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>69</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Company_67</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>70</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Company_68</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>71</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Company_69</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>72</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Company_70</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>73</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Company_71</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>74</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Company_72</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>75</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Company_73</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>76</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Company_74</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>77</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Company_75</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>78</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Company_76</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>79</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Company_77</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>80</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Company_78</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>81</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sdflkjsldkfnlksdfsdflkjsdflksdlfkjsldkfjn sdvlklsdjflsjdflsjdfl sdlkhjsdlifjsldjf lisjdfoijsdf olisjdfoijsdof </t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Failed length rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>82</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Company_80</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>83</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Company_81</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>84</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Company_82</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>85</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Company_83</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>86</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Company_84</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>87</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Company_85</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>88</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Company_86</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>89</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Company_87</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>90</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Company_88</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>91</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Company_89</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Company_90</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>93</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Company_91</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>94</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Company_92</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>95</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Company_93</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>96</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Company_94</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>97</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Company_95</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>98</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Company_96</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>99</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Company_97</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>100</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Company_98</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>101</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Company_99</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>102</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>hh</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Failed length rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>103</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Company_101</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>104</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Company_102</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>105</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Company_103</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>106</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Company_104</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>107</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Company_105</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>108</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Company_106</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>109</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Company_107</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>110</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Company_108</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>111</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Company_109</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>112</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Company_110</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>113</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Company_111</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>114</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Company_112</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>115</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Company_113</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>116</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Company_114</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>117</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Company_115</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>118</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Company_116</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>119</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Company_117</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>120</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Company_118</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>121</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Company_119</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>122</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Company_120</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>123</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Company_121</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>124</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Company_122</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>125</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Company_123</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>126</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Company_124</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>127</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Company_125</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>128</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Company_126</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>129</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Company_127</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>130</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Company_128</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>131</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Company_129</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>132</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Company_130</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>133</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Company_131</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>134</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Company_132</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>135</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Company_133</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>136</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Company_134</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>137</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Company_135</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>138</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Company_136</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>139</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Company_137</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>140</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Company_138</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>141</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Company_139</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>142</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Company_140</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>143</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Company_141</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>144</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Company_142</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>145</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Company_143</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>146</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Company_144</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>147</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Company_145</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>148</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Company_146</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>149</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Company_147</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>150</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Company_148</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>151</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Company_149</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>152</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Company_150</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>153</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Company_151</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>154</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Company_152</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>155</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Company_153</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>156</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Company_154</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>157</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Company_155</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>158</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Company_156</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>159</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Company_157</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>160</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Company_158</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>161</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Company_159</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>162</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Company_160</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>163</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Company_161</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>164</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Company_162</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>165</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Company_163</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>166</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Company_164</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>167</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Company_165</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>168</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Company_166</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>169</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Company_167</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>170</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Company_168</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>171</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Company_169</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>172</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Company_170</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>173</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Company_171</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>174</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Company_172</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>175</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Company_173</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>176</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Company_174</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>177</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Company_175</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>178</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Company_176</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>179</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Company_177</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>180</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Company_178</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>181</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Company_179</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>182</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Company_180</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>183</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Company_181</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>184</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Company_182</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>185</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Company_183</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>186</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Company_184</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>187</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Company_185</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>188</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Company_186</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>189</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Company_187</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>190</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Company_188</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>191</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Company_189</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>192</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Company_190</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>193</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Company_191</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>194</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Company_192</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>195</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Company_193</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>196</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Company_194</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
         <v>197</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Company_195</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>198</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Company_196</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>199</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Company_197</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>200</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Company_198</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>201</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Company_199</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Does not match required pattern: ^[a-zA-Z ]+$</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>5</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>8</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>10</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Ab tt</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>VALIDATION_ERROR</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>could not convert string to float: 'Ab tt'</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>16</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>17</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>19</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>21</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>23</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>25</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>31</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>35</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>37</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>41</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>42</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>500</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Value 500.0 invalid because status is Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>46</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>47</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>49</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>51</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>55</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>57</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>58</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>59</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>61</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>150</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Value 150.0 invalid because status is Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>63</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>67</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>500</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Value 500.0 invalid because status is Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>68</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>69</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>70</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>72</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>500</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Value 500.0 invalid because status is Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>75</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>77</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>500</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Value 500.0 invalid because status is Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>79</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>80</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>82</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>83</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>87</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>88</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>89</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>94</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>95</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>97</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>500</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Value 500.0 invalid because status is Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>98</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>99</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>101</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>hdh</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>105</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>106</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>109</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>112</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>116</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>117</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>500</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Value 500.0 invalid because status is Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>118</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>120</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>127</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>500</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Value 500.0 invalid because status is Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>129</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>130</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>132</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>134</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>136</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>141</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>142</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>146</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>147</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>500</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Value 500.0 invalid because status is Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>152</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>500</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Value 500.0 invalid because status is Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>157</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>500</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Value 500.0 invalid because status is Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>158</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>159</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>162</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>163</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>167</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>500</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Value 500.0 invalid because status is Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>168</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>171</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>172</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>177</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>500</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Value 500.0 invalid because status is Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>181</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>187</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>500</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Value 500.0 invalid because status is Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>189</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>192</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>500</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Value 500.0 invalid because status is Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>198</v>
+      </c>
+      <c r="B280" t="n">
+        <v>2</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>201</v>
+      </c>
+      <c r="B281" t="n">
+        <v>2</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Failed allowed_values rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>32</v>
+      </c>
+      <c r="B282" t="n">
         <v>3</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>INVALID-123</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>PATTERN_MISMATCH</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Regex failure</t>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="D282" s="2" t="n">
+        <v>46047.67946717593</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>RULE_VIOLATION</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Failed date_range rule.</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -474,12 +474,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>CUST-201</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,7 +495,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -507,7 +507,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CUST-201</t>
+          <t>CUST-202</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -523,19 +523,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PRJ-102</t>
+          <t>CUST-203</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -551,7 +551,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -563,7 +563,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CUST-202</t>
+          <t>CUST-204</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -579,19 +579,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PRJ-103</t>
+          <t>CUST-205</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -607,7 +607,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -619,7 +619,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CUST-203</t>
+          <t>CUST-206</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -635,19 +635,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PRJ-104</t>
+          <t>CUST-207</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -663,7 +663,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CUST-204</t>
+          <t>CUST-208</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -691,19 +691,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PRJ-105</t>
+          <t>CUST-209</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -719,7 +719,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -731,7 +731,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CUST-205</t>
+          <t>CUST-210</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -747,19 +747,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PRJ-106</t>
+          <t>CUST-211</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -775,7 +775,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -787,7 +787,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CUST-206</t>
+          <t>CUST-212</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -803,19 +803,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PRJ-107</t>
+          <t>CUST-213</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -831,7 +831,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CUST-207</t>
+          <t>CUST-214</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -859,19 +859,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PRJ-108</t>
+          <t>CUST-215</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -887,7 +887,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -899,7 +899,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CUST-208</t>
+          <t>CUST-216</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -915,19 +915,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PRJ-109</t>
+          <t>CUST-217</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -943,7 +943,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -955,7 +955,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CUST-209</t>
+          <t>CUST-218</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -971,19 +971,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PRJ-110</t>
+          <t>CUST-219</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -999,7 +999,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CUST-210</t>
+          <t>CUST-220</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1027,19 +1027,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PRJ-111</t>
+          <t>CUST-221</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1055,7 +1055,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CUST-211</t>
+          <t>CUST-222</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1083,19 +1083,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PRJ-112</t>
+          <t>CUST-223</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1111,7 +1111,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CUST-212</t>
+          <t>CUST-224</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1139,19 +1139,19 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PRJ-113</t>
+          <t>CUST-225</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1167,7 +1167,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CUST-213</t>
+          <t>CUST-226</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1195,19 +1195,19 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PRJ-114</t>
+          <t>CUST-227</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1223,7 +1223,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CUST-214</t>
+          <t>CUST-228</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1251,19 +1251,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PRJ-115</t>
+          <t>CUST-229</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1279,7 +1279,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CUST-215</t>
+          <t>CUST-230</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1307,19 +1307,19 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PRJ-116</t>
+          <t>CUST-999</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1335,7 +1335,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CUST-216</t>
+          <t>CUST-999</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1363,19 +1363,19 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PRJ-117</t>
+          <t>CUST-888</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1391,7 +1391,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CUST-217</t>
+          <t>CUST-888</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1419,19 +1419,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PRJ-118</t>
+          <t>CUST-777</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1447,7 +1447,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CUST-218</t>
+          <t>CUST-777</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1475,19 +1475,19 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PRJ-119</t>
+          <t>CUST-666</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1503,7 +1503,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CUST-219</t>
+          <t>CUST-667</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1531,19 +1531,19 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PRJ-120</t>
+          <t>CUST-555</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1559,7 +1559,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CUST-220</t>
+          <t>CUST-555</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1587,19 +1587,19 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>invoice_number</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PRJ-121</t>
+          <t>INV-UNIQUE-1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1609,13 +1609,13 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Pattern mismatch</t>
+          <t>Composite duplicate: ('inv-unique-1', 'cust-555')</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CUST-221</t>
+          <t>CUST-3041</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1643,19 +1643,19 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PRJ-122</t>
+          <t>CUST-3042</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1671,7 +1671,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CUST-222</t>
+          <t>CUST-3043</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1699,19 +1699,19 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PRJ-123</t>
+          <t>CUST-3044</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1727,7 +1727,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CUST-223</t>
+          <t>CUST-3045</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1755,19 +1755,19 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PRJ-124</t>
+          <t>CUST-3046</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1783,7 +1783,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CUST-224</t>
+          <t>CUST-3047</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1811,19 +1811,19 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PRJ-125</t>
+          <t>CUST-3048</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1839,7 +1839,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CUST-225</t>
+          <t>CUST-3049</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1867,19 +1867,19 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PRJ-126</t>
+          <t>CUST-3050</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1895,7 +1895,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CUST-226</t>
+          <t>CUST-3051</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1923,19 +1923,19 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PRJ-127</t>
+          <t>CUST-3052</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1951,7 +1951,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CUST-227</t>
+          <t>CUST-3053</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1979,19 +1979,19 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PRJ-128</t>
+          <t>CUST-3054</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2007,7 +2007,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CUST-228</t>
+          <t>CUST-3055</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2035,19 +2035,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PRJ-129</t>
+          <t>CUST-3056</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2063,7 +2063,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>CUST-229</t>
+          <t>CUST-3057</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2091,19 +2091,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PRJ-130</t>
+          <t>CUST-3058</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2119,7 +2119,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CUST-230</t>
+          <t>CUST-3059</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2147,19 +2147,19 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PRJ-999</t>
+          <t>CUST-3060</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2175,7 +2175,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>CUST-999</t>
+          <t>CUST-3061</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2203,19 +2203,19 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PRJ-999</t>
+          <t>CUST-3062</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2225,13 +2225,13 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Duplicate found: prj-999</t>
+          <t>Pattern mismatch</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>CUST-999</t>
+          <t>CUST-3063</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2259,19 +2259,19 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>WRONG-FORMAT</t>
+          <t>CUST-3064</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2287,7 +2287,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>CUST-888</t>
+          <t>CUST-3065</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2315,19 +2315,19 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PRJ-888</t>
+          <t>CUST-3066</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2343,7 +2343,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>CUST-888</t>
+          <t>CUST-3067</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2371,19 +2371,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PRJ-777</t>
+          <t>CUST-3068</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2399,7 +2399,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>CUST-777</t>
+          <t>CUST-3069</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2427,19 +2427,19 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PRJ-777</t>
+          <t>CUST-3070</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2449,13 +2449,13 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Duplicate found: prj-777</t>
+          <t>Pattern mismatch</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>CUST-777</t>
+          <t>CUST-3071</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2483,19 +2483,19 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PRJ-666</t>
+          <t>CUST-3072</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2511,7 +2511,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>CUST-666</t>
+          <t>CUST-3073</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2539,19 +2539,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>PRJ-666</t>
+          <t>CUST-3074</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2561,13 +2561,13 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Duplicate found: prj-666</t>
+          <t>Pattern mismatch</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>CUST-667</t>
+          <t>CUST-3075</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2595,19 +2595,19 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>PRJ-555</t>
+          <t>CUST-3076</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2623,7 +2623,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>CUST-555</t>
+          <t>CUST-3077</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2651,19 +2651,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>PRJ-555</t>
+          <t>CUST-3078</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2673,13 +2673,13 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Duplicate found: prj-555</t>
+          <t>Pattern mismatch</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>CUST-555</t>
+          <t>CUST-3079</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2707,19 +2707,19 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>invoice_number</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>INV-UNIQUE-1</t>
+          <t>CUST-3080</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2729,25 +2729,25 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Composite duplicate: ('inv-unique-1', 'cust-555')</t>
+          <t>Pattern mismatch</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PRJ-2041</t>
+          <t>CUST-3081</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2763,7 +2763,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>CUST-3041</t>
+          <t>CUST-3082</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2791,19 +2791,19 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>PRJ-2042</t>
+          <t>CUST-3083</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2819,7 +2819,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>CUST-3042</t>
+          <t>CUST-3084</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2847,19 +2847,19 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PRJ-2043</t>
+          <t>CUST-3085</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2875,7 +2875,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>CUST-3043</t>
+          <t>CUST-3086</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2903,19 +2903,19 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>PRJ-2044</t>
+          <t>CUST-3087</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2931,7 +2931,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>CUST-3044</t>
+          <t>CUST-3088</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2959,19 +2959,19 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>PRJ-2045</t>
+          <t>CUST-3089</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2987,7 +2987,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>CUST-3045</t>
+          <t>CUST-3090</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3015,19 +3015,19 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>PRJ-2046</t>
+          <t>CUST-3091</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3043,7 +3043,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>CUST-3046</t>
+          <t>CUST-3092</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3071,19 +3071,19 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>PRJ-2047</t>
+          <t>CUST-3093</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3099,7 +3099,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>CUST-3047</t>
+          <t>CUST-3094</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3127,19 +3127,19 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>PRJ-2048</t>
+          <t>CUST-3095</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3155,7 +3155,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>CUST-3048</t>
+          <t>CUST-3096</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3183,19 +3183,19 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>PRJ-2049</t>
+          <t>CUST-3097</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3211,7 +3211,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>CUST-3049</t>
+          <t>CUST-3098</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3239,19 +3239,19 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>PRJ-2050</t>
+          <t>CUST-3099</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3267,7 +3267,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CUST-3050</t>
+          <t>CUST-3100</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3295,19 +3295,19 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>PRJ-2051</t>
+          <t>CUST-3101</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3323,7 +3323,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>CUST-3051</t>
+          <t>CUST-3102</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3351,19 +3351,19 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>PRJ-2052</t>
+          <t>CUST-3103</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3379,7 +3379,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CUST-3052</t>
+          <t>CUST-3104</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3407,19 +3407,19 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>PRJ-2053</t>
+          <t>CUST-3105</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3435,7 +3435,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>CUST-3053</t>
+          <t>CUST-3106</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3463,19 +3463,19 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>PRJ-2054</t>
+          <t>CUST-3107</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3491,7 +3491,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>CUST-3054</t>
+          <t>CUST-3108</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3519,19 +3519,19 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>PRJ-2055</t>
+          <t>CUST-3109</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3547,7 +3547,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>CUST-3055</t>
+          <t>CUST-3110</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3575,19 +3575,19 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>PRJ-2056</t>
+          <t>CUST-3111</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3603,7 +3603,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CUST-3056</t>
+          <t>CUST-3112</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3631,19 +3631,19 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>PRJ-2057</t>
+          <t>CUST-3113</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3659,7 +3659,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>CUST-3057</t>
+          <t>CUST-3114</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3687,19 +3687,19 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>PRJ-2058</t>
+          <t>CUST-3115</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3715,7 +3715,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>CUST-3058</t>
+          <t>CUST-3116</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3743,19 +3743,19 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>PRJ-2059</t>
+          <t>CUST-3117</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3771,7 +3771,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>CUST-3059</t>
+          <t>CUST-3118</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3799,19 +3799,19 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>PRJ-2060</t>
+          <t>CUST-3119</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3827,7 +3827,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>CUST-3060</t>
+          <t>CUST-3120</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3855,19 +3855,19 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="B123" t="n">
         <v>1</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>PRJ-2061</t>
+          <t>CUST-3121</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3883,7 +3883,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>CUST-3061</t>
+          <t>CUST-3122</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3911,19 +3911,19 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>PRJ-2062</t>
+          <t>CUST-3123</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3939,7 +3939,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>CUST-3062</t>
+          <t>CUST-3124</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3967,19 +3967,19 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>PRJ-2063</t>
+          <t>CUST-3125</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3995,7 +3995,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>CUST-3063</t>
+          <t>CUST-3126</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4023,19 +4023,19 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>PRJ-2064</t>
+          <t>CUST-3127</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4051,7 +4051,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>CUST-3064</t>
+          <t>CUST-3128</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4079,19 +4079,19 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>PRJ-2065</t>
+          <t>CUST-3129</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4107,7 +4107,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>CUST-3065</t>
+          <t>CUST-3130</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4135,19 +4135,19 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>PRJ-2066</t>
+          <t>CUST-3131</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4163,7 +4163,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>CUST-3066</t>
+          <t>CUST-3132</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4191,19 +4191,19 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>PRJ-2067</t>
+          <t>CUST-3133</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4219,7 +4219,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>CUST-3067</t>
+          <t>CUST-3134</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4247,19 +4247,19 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>PRJ-2068</t>
+          <t>CUST-3135</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4275,7 +4275,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>CUST-3068</t>
+          <t>CUST-3136</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4303,19 +4303,19 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>PRJ-2069</t>
+          <t>CUST-3137</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4331,7 +4331,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="B140" t="n">
         <v>1</v>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>CUST-3069</t>
+          <t>CUST-3138</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4359,19 +4359,19 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>PRJ-2070</t>
+          <t>CUST-3139</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4387,7 +4387,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>CUST-3070</t>
+          <t>CUST-3140</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4415,19 +4415,19 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>PRJ-2071</t>
+          <t>CUST-3141</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4443,7 +4443,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>CUST-3071</t>
+          <t>CUST-3142</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4471,19 +4471,19 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>PRJ-2072</t>
+          <t>CUST-3143</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4499,7 +4499,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>CUST-3072</t>
+          <t>CUST-3144</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4527,19 +4527,19 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>PRJ-2073</t>
+          <t>CUST-3145</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4555,7 +4555,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>CUST-3073</t>
+          <t>CUST-3146</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4583,19 +4583,19 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="B149" t="n">
         <v>1</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>PRJ-2074</t>
+          <t>CUST-3147</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4611,7 +4611,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>CUST-3074</t>
+          <t>CUST-3148</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4639,19 +4639,19 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="B151" t="n">
         <v>1</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>PRJ-2075</t>
+          <t>CUST-3149</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4667,7 +4667,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>CUST-3075</t>
+          <t>CUST-3150</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4695,19 +4695,19 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>PRJ-2076</t>
+          <t>CUST-3151</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4723,7 +4723,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>CUST-3076</t>
+          <t>CUST-3152</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4751,19 +4751,19 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>PRJ-2077</t>
+          <t>CUST-3153</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4779,7 +4779,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>CUST-3077</t>
+          <t>CUST-3154</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4807,19 +4807,19 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>PRJ-2078</t>
+          <t>CUST-3155</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4835,7 +4835,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>CUST-3078</t>
+          <t>CUST-3156</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4863,19 +4863,19 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>PRJ-2079</t>
+          <t>CUST-3157</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4891,7 +4891,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>CUST-3079</t>
+          <t>CUST-3158</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4919,19 +4919,19 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>PRJ-2080</t>
+          <t>CUST-3159</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4947,7 +4947,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>CUST-3080</t>
+          <t>CUST-3160</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4975,19 +4975,19 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>PRJ-2081</t>
+          <t>CUST-3161</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5003,7 +5003,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="B164" t="n">
         <v>1</v>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>CUST-3081</t>
+          <t>CUST-3162</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5031,19 +5031,19 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>PRJ-2082</t>
+          <t>CUST-3163</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5059,7 +5059,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>CUST-3082</t>
+          <t>CUST-3164</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5087,19 +5087,19 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B167" t="n">
         <v>1</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>PRJ-2083</t>
+          <t>CUST-3165</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5115,7 +5115,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="B168" t="n">
         <v>1</v>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>CUST-3083</t>
+          <t>CUST-3166</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5143,19 +5143,19 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="B169" t="n">
         <v>1</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>PRJ-2084</t>
+          <t>CUST-3167</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5171,7 +5171,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="B170" t="n">
         <v>1</v>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>CUST-3084</t>
+          <t>CUST-3168</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5199,19 +5199,19 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="B171" t="n">
         <v>1</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>PRJ-2085</t>
+          <t>CUST-3169</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5227,7 +5227,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>CUST-3085</t>
+          <t>CUST-3170</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5255,19 +5255,19 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="B173" t="n">
         <v>1</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>PRJ-2086</t>
+          <t>CUST-3171</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5283,7 +5283,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>CUST-3086</t>
+          <t>CUST-3172</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5311,19 +5311,19 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>PRJ-2087</t>
+          <t>CUST-3173</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5339,7 +5339,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>CUST-3087</t>
+          <t>CUST-3174</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5367,19 +5367,19 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>PRJ-2088</t>
+          <t>CUST-3175</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -5395,7 +5395,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>CUST-3088</t>
+          <t>CUST-3176</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -5423,19 +5423,19 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>PRJ-2089</t>
+          <t>CUST-3177</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5451,7 +5451,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>CUST-3089</t>
+          <t>CUST-3178</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -5479,19 +5479,19 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>PRJ-2090</t>
+          <t>CUST-3179</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5507,7 +5507,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>CUST-3090</t>
+          <t>CUST-3180</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5535,19 +5535,19 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>PRJ-2091</t>
+          <t>CUST-3181</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5563,7 +5563,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>CUST-3091</t>
+          <t>CUST-3182</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5591,19 +5591,19 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>PRJ-2092</t>
+          <t>CUST-3183</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5619,7 +5619,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="B186" t="n">
         <v>1</v>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>CUST-3092</t>
+          <t>CUST-3184</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5647,19 +5647,19 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>PRJ-2093</t>
+          <t>CUST-3185</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5675,7 +5675,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>CUST-3093</t>
+          <t>CUST-3186</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5703,19 +5703,19 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>PRJ-2094</t>
+          <t>CUST-3187</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5731,7 +5731,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="B190" t="n">
         <v>1</v>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>CUST-3094</t>
+          <t>CUST-3188</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5759,19 +5759,19 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>PRJ-2095</t>
+          <t>CUST-3189</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5787,7 +5787,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>CUST-3095</t>
+          <t>CUST-3190</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5815,19 +5815,19 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="B193" t="n">
         <v>1</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>PRJ-2096</t>
+          <t>CUST-3191</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5843,7 +5843,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>CUST-3096</t>
+          <t>CUST-3192</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5871,19 +5871,19 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>PRJ-2097</t>
+          <t>CUST-3193</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5899,7 +5899,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>CUST-3097</t>
+          <t>CUST-3194</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -5927,19 +5927,19 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>PRJ-2098</t>
+          <t>CUST-3195</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -5955,7 +5955,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="B198" t="n">
         <v>1</v>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>CUST-3098</t>
+          <t>CUST-3196</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -5983,19 +5983,19 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="B199" t="n">
         <v>1</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>PRJ-2099</t>
+          <t>CUST-3197</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -6011,7 +6011,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>CUST-3099</t>
+          <t>CUST-3198</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -6039,19 +6039,19 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>customer_code</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>PRJ-2100</t>
+          <t>CUST-3199</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -6067,7 +6067,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="B202" t="n">
         <v>1</v>
@@ -6079,7 +6079,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>CUST-3100</t>
+          <t>CUST-3200</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -6095,21 +6095,17 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>PRJ-2101</t>
-        </is>
-      </c>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
           <t>VALIDATION_FAILED</t>
@@ -6117,25 +6113,25 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Pattern mismatch</t>
+          <t>Field 'amount' is required.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>CUST-3101</t>
+          <t>TEN_DOLLARS</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -6145,25 +6141,25 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Pattern mismatch</t>
+          <t>could not convert string to float: 'TEN_DOLLARS'</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>PRJ-2102</t>
+          <t>Ab</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -6173,26 +6169,24 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Pattern mismatch</t>
+          <t>Length less than 3</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>customer_code</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>CUST-3102</t>
-        </is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>500.5</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -6201,16 +6195,16 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Pattern mismatch</t>
+          <t>Amount must be 0 when status is suspend</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -6219,7 +6213,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>PRJ-2103</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -6235,19 +6229,19 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>CUST-3103</t>
+          <t>PRJ-102</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -6263,10 +6257,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -6275,7 +6269,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>PRJ-2104</t>
+          <t>PRJ-103</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -6291,19 +6285,19 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>CUST-3104</t>
+          <t>PRJ-104</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -6319,10 +6313,10 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -6331,7 +6325,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>PRJ-2105</t>
+          <t>PRJ-105</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -6347,19 +6341,19 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>CUST-3105</t>
+          <t>PRJ-106</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -6375,10 +6369,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -6387,7 +6381,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>PRJ-2106</t>
+          <t>PRJ-107</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -6403,19 +6397,19 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>CUST-3106</t>
+          <t>PRJ-108</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -6431,10 +6425,10 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -6443,7 +6437,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>PRJ-2107</t>
+          <t>PRJ-109</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -6459,19 +6453,19 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>CUST-3107</t>
+          <t>PRJ-110</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -6487,10 +6481,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -6499,7 +6493,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>PRJ-2108</t>
+          <t>PRJ-111</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -6515,19 +6509,19 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>CUST-3108</t>
+          <t>PRJ-112</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -6543,10 +6537,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -6555,7 +6549,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>PRJ-2109</t>
+          <t>PRJ-113</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -6571,19 +6565,19 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>CUST-3109</t>
+          <t>PRJ-114</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -6599,10 +6593,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -6611,7 +6605,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>PRJ-2110</t>
+          <t>PRJ-115</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -6627,19 +6621,19 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>CUST-3110</t>
+          <t>PRJ-116</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -6655,10 +6649,10 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -6667,7 +6661,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>PRJ-2111</t>
+          <t>PRJ-117</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -6683,19 +6677,19 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>CUST-3111</t>
+          <t>PRJ-118</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -6711,10 +6705,10 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -6723,7 +6717,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>PRJ-2112</t>
+          <t>PRJ-119</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -6739,19 +6733,19 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>CUST-3112</t>
+          <t>PRJ-120</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -6767,10 +6761,10 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -6779,7 +6773,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>PRJ-2113</t>
+          <t>PRJ-121</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -6795,19 +6789,19 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>CUST-3113</t>
+          <t>PRJ-122</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -6823,10 +6817,10 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -6835,7 +6829,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>PRJ-2114</t>
+          <t>PRJ-123</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -6851,19 +6845,19 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>CUST-3114</t>
+          <t>PRJ-124</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -6879,10 +6873,10 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -6891,7 +6885,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>PRJ-2115</t>
+          <t>PRJ-125</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -6907,19 +6901,19 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>CUST-3115</t>
+          <t>PRJ-126</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -6935,10 +6929,10 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -6947,7 +6941,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>PRJ-2116</t>
+          <t>PRJ-127</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -6963,19 +6957,19 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>CUST-3116</t>
+          <t>PRJ-128</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -6991,10 +6985,10 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -7003,7 +6997,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>PRJ-2117</t>
+          <t>PRJ-129</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -7019,19 +7013,19 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>CUST-3117</t>
+          <t>PRJ-130</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -7047,10 +7041,10 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -7059,7 +7053,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>PRJ-2118</t>
+          <t>PRJ-999</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -7075,19 +7069,19 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>CUST-3118</t>
+          <t>PRJ-999</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -7097,16 +7091,16 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Pattern mismatch</t>
+          <t>Duplicate found: prj-999</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -7115,7 +7109,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>PRJ-2119</t>
+          <t>WRONG-FORMAT</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -7131,19 +7125,19 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>CUST-3119</t>
+          <t>PRJ-888</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -7159,10 +7153,10 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -7171,7 +7165,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>PRJ-2120</t>
+          <t>PRJ-777</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -7187,19 +7181,19 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>CUST-3120</t>
+          <t>PRJ-777</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -7209,16 +7203,16 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Pattern mismatch</t>
+          <t>Duplicate found: prj-777</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -7227,7 +7221,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>PRJ-2121</t>
+          <t>PRJ-666</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -7243,19 +7237,19 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>created_at</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>CUST-3121</t>
+          <t>2027-01-01</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -7265,16 +7259,16 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Pattern mismatch</t>
+          <t>Year later than 2026</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -7283,7 +7277,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>PRJ-2122</t>
+          <t>PRJ-666</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -7293,26 +7287,24 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Pattern mismatch</t>
+          <t>Duplicate found: prj-666</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>customer_code</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>CUST-3122</t>
-        </is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>4654654.23</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -7321,16 +7313,16 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Pattern mismatch</t>
+          <t>Datetime processing failed: cannot convert input with unit 'D'</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -7339,7 +7331,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>PRJ-2123</t>
+          <t>PRJ-555</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -7355,19 +7347,19 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>CUST-3123</t>
+          <t>PRJ-555</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -7377,16 +7369,16 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Pattern mismatch</t>
+          <t>Duplicate found: prj-555</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -7395,7 +7387,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>PRJ-2124</t>
+          <t>PRJ-2041</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -7411,19 +7403,19 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>CUST-3124</t>
+          <t>PRJ-2042</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -7439,10 +7431,10 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -7451,7 +7443,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>PRJ-2125</t>
+          <t>PRJ-2043</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -7467,19 +7459,19 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>CUST-3125</t>
+          <t>PRJ-2044</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -7495,10 +7487,10 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -7507,7 +7499,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>PRJ-2126</t>
+          <t>PRJ-2045</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -7523,19 +7515,19 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>CUST-3126</t>
+          <t>PRJ-2046</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -7551,10 +7543,10 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -7563,7 +7555,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>PRJ-2127</t>
+          <t>PRJ-2047</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -7579,19 +7571,19 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>CUST-3127</t>
+          <t>PRJ-2048</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -7607,10 +7599,10 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -7619,7 +7611,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>PRJ-2128</t>
+          <t>PRJ-2049</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -7635,19 +7627,19 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>CUST-3128</t>
+          <t>PRJ-2050</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -7663,10 +7655,10 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -7675,7 +7667,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>PRJ-2129</t>
+          <t>PRJ-2051</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -7691,19 +7683,19 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>CUST-3129</t>
+          <t>PRJ-2052</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -7719,10 +7711,10 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -7731,7 +7723,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>PRJ-2130</t>
+          <t>PRJ-2053</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -7747,19 +7739,19 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>CUST-3130</t>
+          <t>PRJ-2054</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -7775,10 +7767,10 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -7787,7 +7779,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>PRJ-2131</t>
+          <t>PRJ-2055</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -7803,19 +7795,19 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>CUST-3131</t>
+          <t>PRJ-2056</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -7831,10 +7823,10 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -7843,7 +7835,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>PRJ-2132</t>
+          <t>PRJ-2057</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -7859,19 +7851,19 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>CUST-3132</t>
+          <t>PRJ-2058</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -7887,10 +7879,10 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -7899,7 +7891,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>PRJ-2133</t>
+          <t>PRJ-2059</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -7915,19 +7907,19 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>CUST-3133</t>
+          <t>PRJ-2060</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -7943,10 +7935,10 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -7955,7 +7947,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>PRJ-2134</t>
+          <t>PRJ-2061</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -7971,19 +7963,19 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>CUST-3134</t>
+          <t>PRJ-2062</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -7999,10 +7991,10 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -8011,7 +8003,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>PRJ-2135</t>
+          <t>PRJ-2063</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -8027,19 +8019,19 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>CUST-3135</t>
+          <t>PRJ-2064</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -8055,10 +8047,10 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -8067,7 +8059,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>PRJ-2136</t>
+          <t>PRJ-2065</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -8083,19 +8075,19 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>CUST-3136</t>
+          <t>PRJ-2066</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -8111,10 +8103,10 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -8123,7 +8115,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>PRJ-2137</t>
+          <t>PRJ-2067</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -8139,19 +8131,19 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>CUST-3137</t>
+          <t>PRJ-2068</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -8167,10 +8159,10 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -8179,7 +8171,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>PRJ-2138</t>
+          <t>PRJ-2069</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -8195,19 +8187,19 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>CUST-3138</t>
+          <t>PRJ-2070</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -8223,10 +8215,10 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -8235,7 +8227,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>PRJ-2139</t>
+          <t>PRJ-2071</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -8251,19 +8243,19 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>CUST-3139</t>
+          <t>PRJ-2072</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -8279,10 +8271,10 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -8291,7 +8283,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>PRJ-2140</t>
+          <t>PRJ-2073</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -8307,19 +8299,19 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>CUST-3140</t>
+          <t>PRJ-2074</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -8335,10 +8327,10 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -8347,7 +8339,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>PRJ-2141</t>
+          <t>PRJ-2075</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -8363,19 +8355,19 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>CUST-3141</t>
+          <t>PRJ-2076</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -8391,10 +8383,10 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="B285" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -8403,7 +8395,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>PRJ-2142</t>
+          <t>PRJ-2077</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -8419,19 +8411,19 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>CUST-3142</t>
+          <t>PRJ-2078</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -8447,10 +8439,10 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -8459,7 +8451,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>PRJ-2143</t>
+          <t>PRJ-2079</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -8475,19 +8467,19 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>CUST-3143</t>
+          <t>PRJ-2080</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -8503,10 +8495,10 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -8515,7 +8507,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>PRJ-2144</t>
+          <t>PRJ-2081</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -8531,19 +8523,19 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>CUST-3144</t>
+          <t>PRJ-2082</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -8559,10 +8551,10 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -8571,7 +8563,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>PRJ-2145</t>
+          <t>PRJ-2083</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -8587,19 +8579,19 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>CUST-3145</t>
+          <t>PRJ-2084</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -8615,10 +8607,10 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -8627,7 +8619,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>PRJ-2146</t>
+          <t>PRJ-2085</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -8643,19 +8635,19 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>CUST-3146</t>
+          <t>PRJ-2086</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -8671,10 +8663,10 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -8683,7 +8675,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>PRJ-2147</t>
+          <t>PRJ-2087</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -8699,19 +8691,19 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>CUST-3147</t>
+          <t>PRJ-2088</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -8727,10 +8719,10 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -8739,7 +8731,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>PRJ-2148</t>
+          <t>PRJ-2089</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -8755,19 +8747,19 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>CUST-3148</t>
+          <t>PRJ-2090</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -8783,10 +8775,10 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -8795,7 +8787,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>PRJ-2149</t>
+          <t>PRJ-2091</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -8811,19 +8803,19 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>CUST-3149</t>
+          <t>PRJ-2092</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -8839,10 +8831,10 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -8851,7 +8843,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>PRJ-2150</t>
+          <t>PRJ-2093</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -8867,19 +8859,19 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>CUST-3150</t>
+          <t>PRJ-2094</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -8895,10 +8887,10 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -8907,7 +8899,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>PRJ-2151</t>
+          <t>PRJ-2095</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -8923,19 +8915,19 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>CUST-3151</t>
+          <t>PRJ-2096</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -8951,10 +8943,10 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -8963,7 +8955,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>PRJ-2152</t>
+          <t>PRJ-2097</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -8979,19 +8971,19 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>CUST-3152</t>
+          <t>PRJ-2098</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -9007,10 +8999,10 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -9019,7 +9011,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>PRJ-2153</t>
+          <t>PRJ-2099</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -9035,19 +9027,19 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>CUST-3153</t>
+          <t>PRJ-2100</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -9063,10 +9055,10 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -9075,7 +9067,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>PRJ-2154</t>
+          <t>PRJ-2101</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -9091,19 +9083,19 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>CUST-3154</t>
+          <t>PRJ-2102</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -9119,10 +9111,10 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="B311" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -9131,7 +9123,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>PRJ-2155</t>
+          <t>PRJ-2103</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -9147,19 +9139,19 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>CUST-3155</t>
+          <t>PRJ-2104</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -9175,10 +9167,10 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="B313" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -9187,7 +9179,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>PRJ-2156</t>
+          <t>PRJ-2105</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -9203,19 +9195,19 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>CUST-3156</t>
+          <t>PRJ-2106</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -9231,10 +9223,10 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -9243,7 +9235,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>PRJ-2157</t>
+          <t>PRJ-2107</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -9259,19 +9251,19 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>CUST-3157</t>
+          <t>PRJ-2108</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -9287,10 +9279,10 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -9299,7 +9291,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>PRJ-2158</t>
+          <t>PRJ-2109</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -9315,19 +9307,19 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>CUST-3158</t>
+          <t>PRJ-2110</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -9343,10 +9335,10 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -9355,7 +9347,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>PRJ-2159</t>
+          <t>PRJ-2111</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -9371,19 +9363,19 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>CUST-3159</t>
+          <t>PRJ-2112</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -9399,10 +9391,10 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -9411,7 +9403,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>PRJ-2160</t>
+          <t>PRJ-2113</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -9427,19 +9419,19 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>CUST-3160</t>
+          <t>PRJ-2114</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -9455,10 +9447,10 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -9467,7 +9459,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>PRJ-2161</t>
+          <t>PRJ-2115</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -9483,19 +9475,19 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>CUST-3161</t>
+          <t>PRJ-2116</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -9511,10 +9503,10 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -9523,7 +9515,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>PRJ-2162</t>
+          <t>PRJ-2117</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -9539,19 +9531,19 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>CUST-3162</t>
+          <t>PRJ-2118</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -9567,10 +9559,10 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="B327" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -9579,7 +9571,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>PRJ-2163</t>
+          <t>PRJ-2119</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -9595,19 +9587,19 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="B328" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>CUST-3163</t>
+          <t>PRJ-2120</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -9623,10 +9615,10 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -9635,7 +9627,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>PRJ-2164</t>
+          <t>PRJ-2121</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -9651,19 +9643,19 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>CUST-3164</t>
+          <t>PRJ-2122</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -9679,10 +9671,10 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -9691,7 +9683,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>PRJ-2165</t>
+          <t>PRJ-2123</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -9707,19 +9699,19 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>CUST-3165</t>
+          <t>PRJ-2124</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -9735,10 +9727,10 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -9747,7 +9739,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>PRJ-2166</t>
+          <t>PRJ-2125</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -9763,19 +9755,19 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>CUST-3166</t>
+          <t>PRJ-2126</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -9791,10 +9783,10 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -9803,7 +9795,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>PRJ-2167</t>
+          <t>PRJ-2127</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -9819,19 +9811,19 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>CUST-3167</t>
+          <t>PRJ-2128</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -9847,10 +9839,10 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -9859,7 +9851,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>PRJ-2168</t>
+          <t>PRJ-2129</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -9875,19 +9867,19 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>CUST-3168</t>
+          <t>PRJ-2130</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -9903,10 +9895,10 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -9915,7 +9907,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>PRJ-2169</t>
+          <t>PRJ-2131</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -9931,19 +9923,19 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>CUST-3169</t>
+          <t>PRJ-2132</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -9959,10 +9951,10 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -9971,7 +9963,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>PRJ-2170</t>
+          <t>PRJ-2133</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -9987,19 +9979,19 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>CUST-3170</t>
+          <t>PRJ-2134</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -10015,10 +10007,10 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -10027,7 +10019,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>PRJ-2171</t>
+          <t>PRJ-2135</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -10043,19 +10035,19 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="B344" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>CUST-3171</t>
+          <t>PRJ-2136</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -10071,10 +10063,10 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="B345" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -10083,7 +10075,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>PRJ-2172</t>
+          <t>PRJ-2137</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -10099,19 +10091,19 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>CUST-3172</t>
+          <t>PRJ-2138</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -10127,10 +10119,10 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -10139,7 +10131,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>PRJ-2173</t>
+          <t>PRJ-2139</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -10155,19 +10147,19 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>CUST-3173</t>
+          <t>PRJ-2140</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -10183,10 +10175,10 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -10195,7 +10187,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>PRJ-2174</t>
+          <t>PRJ-2141</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -10211,19 +10203,19 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>CUST-3174</t>
+          <t>PRJ-2142</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -10239,10 +10231,10 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -10251,7 +10243,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>PRJ-2175</t>
+          <t>PRJ-2143</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -10267,19 +10259,19 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>CUST-3175</t>
+          <t>PRJ-2144</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -10295,10 +10287,10 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -10307,7 +10299,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>PRJ-2176</t>
+          <t>PRJ-2145</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -10323,19 +10315,19 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>CUST-3176</t>
+          <t>PRJ-2146</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -10351,10 +10343,10 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -10363,7 +10355,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>PRJ-2177</t>
+          <t>PRJ-2147</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -10379,19 +10371,19 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="B356" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>CUST-3177</t>
+          <t>PRJ-2148</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -10407,10 +10399,10 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -10419,7 +10411,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>PRJ-2178</t>
+          <t>PRJ-2149</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -10435,19 +10427,19 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>CUST-3178</t>
+          <t>PRJ-2150</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -10463,10 +10455,10 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -10475,7 +10467,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>PRJ-2179</t>
+          <t>PRJ-2151</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -10491,19 +10483,19 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>CUST-3179</t>
+          <t>PRJ-2152</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -10519,10 +10511,10 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -10531,7 +10523,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>PRJ-2180</t>
+          <t>PRJ-2153</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -10547,19 +10539,19 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>CUST-3180</t>
+          <t>PRJ-2154</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -10575,10 +10567,10 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -10587,7 +10579,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>PRJ-2181</t>
+          <t>PRJ-2155</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -10603,19 +10595,19 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B364" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>CUST-3181</t>
+          <t>PRJ-2156</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -10631,10 +10623,10 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B365" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -10643,7 +10635,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>PRJ-2182</t>
+          <t>PRJ-2157</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -10659,19 +10651,19 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>CUST-3182</t>
+          <t>PRJ-2158</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -10687,10 +10679,10 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -10699,7 +10691,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>PRJ-2183</t>
+          <t>PRJ-2159</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -10715,19 +10707,19 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>CUST-3183</t>
+          <t>PRJ-2160</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -10743,10 +10735,10 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -10755,7 +10747,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>PRJ-2184</t>
+          <t>PRJ-2161</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -10771,19 +10763,19 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>CUST-3184</t>
+          <t>PRJ-2162</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -10799,10 +10791,10 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -10811,7 +10803,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>PRJ-2185</t>
+          <t>PRJ-2163</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -10827,19 +10819,19 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B372" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>CUST-3185</t>
+          <t>PRJ-2164</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -10855,10 +10847,10 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B373" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -10867,7 +10859,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>PRJ-2186</t>
+          <t>PRJ-2165</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -10883,19 +10875,19 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B374" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>CUST-3186</t>
+          <t>PRJ-2166</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -10911,10 +10903,10 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B375" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -10923,7 +10915,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>PRJ-2187</t>
+          <t>PRJ-2167</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -10939,19 +10931,19 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>CUST-3187</t>
+          <t>PRJ-2168</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -10967,10 +10959,10 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B377" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -10979,7 +10971,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>PRJ-2188</t>
+          <t>PRJ-2169</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -10995,19 +10987,19 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>CUST-3188</t>
+          <t>PRJ-2170</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -11023,10 +11015,10 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -11035,7 +11027,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>PRJ-2189</t>
+          <t>PRJ-2171</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -11051,19 +11043,19 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>CUST-3189</t>
+          <t>PRJ-2172</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -11079,10 +11071,10 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -11091,7 +11083,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>PRJ-2190</t>
+          <t>PRJ-2173</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -11107,19 +11099,19 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>CUST-3190</t>
+          <t>PRJ-2174</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -11135,10 +11127,10 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -11147,7 +11139,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>PRJ-2191</t>
+          <t>PRJ-2175</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -11163,19 +11155,19 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B384" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>CUST-3191</t>
+          <t>PRJ-2176</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -11191,10 +11183,10 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -11203,7 +11195,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>PRJ-2192</t>
+          <t>PRJ-2177</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -11219,19 +11211,19 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B386" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>CUST-3192</t>
+          <t>PRJ-2178</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -11247,10 +11239,10 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B387" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -11259,7 +11251,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>PRJ-2193</t>
+          <t>PRJ-2179</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -11275,19 +11267,19 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>CUST-3193</t>
+          <t>PRJ-2180</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -11303,10 +11295,10 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B389" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -11315,7 +11307,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>PRJ-2194</t>
+          <t>PRJ-2181</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -11331,19 +11323,19 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B390" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>CUST-3194</t>
+          <t>PRJ-2182</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -11359,10 +11351,10 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B391" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -11371,7 +11363,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>PRJ-2195</t>
+          <t>PRJ-2183</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -11387,19 +11379,19 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B392" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>CUST-3195</t>
+          <t>PRJ-2184</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -11415,10 +11407,10 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B393" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -11427,7 +11419,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>PRJ-2196</t>
+          <t>PRJ-2185</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -11443,19 +11435,19 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B394" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>CUST-3196</t>
+          <t>PRJ-2186</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -11471,10 +11463,10 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -11483,7 +11475,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>PRJ-2197</t>
+          <t>PRJ-2187</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -11499,19 +11491,19 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B396" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>CUST-3197</t>
+          <t>PRJ-2188</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -11527,10 +11519,10 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -11539,7 +11531,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>PRJ-2198</t>
+          <t>PRJ-2189</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -11555,19 +11547,19 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B398" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>CUST-3198</t>
+          <t>PRJ-2190</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -11583,10 +11575,10 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B399" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -11595,7 +11587,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>PRJ-2199</t>
+          <t>PRJ-2191</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -11611,19 +11603,19 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>CUST-3199</t>
+          <t>PRJ-2192</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -11639,10 +11631,10 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B401" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -11651,7 +11643,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>PRJ-2200</t>
+          <t>PRJ-2193</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -11667,19 +11659,19 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>customer_code</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>CUST-3200</t>
+          <t>PRJ-2194</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -11695,17 +11687,21 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="B403" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D403" t="inlineStr"/>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>PRJ-2195</t>
+        </is>
+      </c>
       <c r="E403" t="inlineStr">
         <is>
           <t>VALIDATION_FAILED</t>
@@ -11713,25 +11709,25 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Field 'amount' is required.</t>
+          <t>Pattern mismatch</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="B404" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>TEN_DOLLARS</t>
+          <t>PRJ-2196</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -11741,25 +11737,25 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>could not convert string to float: 'TEN_DOLLARS'</t>
+          <t>Pattern mismatch</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="B405" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>PRJ-2197</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -11769,24 +11765,26 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Length less than 3</t>
+          <t>Pattern mismatch</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="B406" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D406" t="n">
-        <v>500.5</v>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>PRJ-2198</t>
+        </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -11795,25 +11793,25 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Amount must be 0 when status is suspend</t>
+          <t>Pattern mismatch</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="B407" t="n">
         <v>3</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>created_at</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>2027-01-01</t>
+          <t>PRJ-2199</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -11823,24 +11821,26 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Year later than 2026</t>
+          <t>Pattern mismatch</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="B408" t="n">
         <v>3</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="D408" t="n">
-        <v>4654654.23</v>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>PRJ-2200</t>
+        </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>Datetime processing failed: cannot convert input with unit 'D'</t>
+          <t>Pattern mismatch</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,7 +601,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
         <v>3</v>
@@ -613,7 +613,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PRJ-999</t>
+          <t>WRONG-FORMAT</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -623,25 +623,25 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Duplicate found: PRJ-999</t>
+          <t>Pattern mismatch</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B8" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>created_at</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>WRONG-FORMAT</t>
+          <t>2027-01-01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -651,26 +651,24 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Pattern mismatch</t>
+          <t>Year later than 2026</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PRJ-777</t>
-        </is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4654654.23</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -679,117 +677,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Duplicate found: PRJ-777</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>38</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2027-01-01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VALIDATION_FAILED</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Year later than 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>39</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>PRJ-666</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>VALIDATION_FAILED</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Duplicate found: PRJ-666</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>39</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>4654654.23</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>VALIDATION_FAILED</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>Datetime processing failed: cannot convert input with unit 'D'</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>41</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>PRJ-555</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VALIDATION_FAILED</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Duplicate found: PRJ-555</t>
         </is>
       </c>
     </row>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,17 +495,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>VALIDATION_FAILED</t>
@@ -513,13 +517,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Field 'amount' is required.</t>
+          <t>Value not in allowed list: ['active', 'pending', 'closed', 'suspend']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -529,11 +533,7 @@
           <t>amount</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>TEN_DOLLARS</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>VALIDATION_FAILED</t>
@@ -541,25 +541,25 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>could not convert string to float: 'TEN_DOLLARS'</t>
+          <t>Field 'amount' is required.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>TEN_DOLLARS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -569,24 +569,26 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Length less than 3</t>
+          <t>could not convert string to float: 'TEN_DOLLARS'</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>500.5</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ab</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -595,26 +597,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Amount must be 0 when status is suspend</t>
+          <t>Length less than 3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>WRONG-FORMAT</t>
-        </is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>500.5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -623,25 +623,25 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Pattern mismatch</t>
+          <t>Amount must be 0 when status is suspend</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>created_at</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2027-01-01</t>
+          <t>WRONG-FORMAT</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -651,13 +651,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Year later than 2026</t>
+          <t>Pattern mismatch</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -667,15 +667,43 @@
           <t>created_at</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2027-01-01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VALIDATION_FAILED</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Year later than 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>4654654.23</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>VALIDATION_FAILED</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VALIDATION_FAILED</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Datetime processing failed: cannot convert input with unit 'D'</t>
         </is>

--- a/data/result/validation_errors.xlsx
+++ b/data/result/validation_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,19 +495,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>invoice_number</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>INV-1002</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,23 +517,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Value not in allowed list: ['active', 'pending', 'closed', 'suspend']</t>
+          <t>Composite duplicate: ('inv-1002', 'cust-202')</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>VALIDATION_FAILED</t>
@@ -541,13 +545,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Field 'amount' is required.</t>
+          <t>Value not in allowed list: ['active', 'pending', 'closed', 'suspend']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -557,11 +561,7 @@
           <t>amount</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TEN_DOLLARS</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>VALIDATION_FAILED</t>
@@ -569,25 +569,25 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>could not convert string to float: 'TEN_DOLLARS'</t>
+          <t>Field 'amount' is required.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ab</t>
+          <t>TEN_DOLLARS</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -597,24 +597,26 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Length less than 3</t>
+          <t>could not convert string to float: 'TEN_DOLLARS'</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>500.5</v>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ab</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -623,26 +625,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Amount must be 0 when status is suspend</t>
+          <t>Length less than 3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>project_code</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>WRONG-FORMAT</t>
-        </is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>500.5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -651,25 +651,25 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Pattern mismatch</t>
+          <t>Amount must be 0 when status is suspend</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>created_at</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2027-01-01</t>
+          <t>WRONG-FORMAT</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,13 +679,13 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Year later than 2026</t>
+          <t>Pattern mismatch</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="n">
         <v>3</v>
@@ -695,15 +695,43 @@
           <t>created_at</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2027-01-01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VALIDATION_FAILED</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Year later than 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>4654654.23</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VALIDATION_FAILED</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VALIDATION_FAILED</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Datetime processing failed: cannot convert input with unit 'D'</t>
         </is>
